--- a/server/LISTAS/mi/SOPORTE DE ESTANTE.xlsx
+++ b/server/LISTAS/mi/SOPORTE DE ESTANTE.xlsx
@@ -815,7 +815,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="n">
-        <v>45289</v>
+        <v>45308</v>
       </c>
       <c r="F1" s="23" t="n"/>
       <c r="G1" s="23" t="n"/>

--- a/server/LISTAS/mi/SOPORTE DE ESTANTE.xlsx
+++ b/server/LISTAS/mi/SOPORTE DE ESTANTE.xlsx
@@ -815,7 +815,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="F1" s="23" t="n"/>
       <c r="G1" s="23" t="n"/>
@@ -886,7 +886,7 @@
       </c>
       <c r="C26" s="26" t="n"/>
       <c r="D26" s="9" t="n">
-        <v>3450.825</v>
+        <v>6797.942</v>
       </c>
       <c r="I26" s="4" t="n"/>
     </row>
@@ -903,7 +903,7 @@
       </c>
       <c r="C27" s="26" t="n"/>
       <c r="D27" s="9" t="n">
-        <v>4318.805</v>
+        <v>8507.816999999999</v>
       </c>
       <c r="I27" s="4" t="n"/>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C28" s="26" t="n"/>
       <c r="D28" s="9" t="n">
-        <v>5620.065</v>
+        <v>11071.228</v>
       </c>
       <c r="I28" s="4" t="n"/>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C29" s="26" t="n"/>
       <c r="D29" s="9" t="n">
-        <v>7941.257</v>
+        <v>15643.851</v>
       </c>
       <c r="I29" s="4" t="n"/>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="C30" s="26" t="n"/>
       <c r="D30" s="9" t="n">
-        <v>11704.373</v>
+        <v>23056.99</v>
       </c>
       <c r="I30" s="4" t="n"/>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="C31" s="26" t="n"/>
       <c r="D31" s="9" t="n">
-        <v>16093.505</v>
+        <v>31703.345</v>
       </c>
       <c r="I31" s="4" t="n"/>
     </row>
@@ -988,7 +988,7 @@
       </c>
       <c r="C32" s="26" t="n"/>
       <c r="D32" s="19" t="n">
-        <v>20689.449</v>
+        <v>40757.109</v>
       </c>
       <c r="I32" s="4" t="n"/>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="C34" s="26" t="n"/>
       <c r="D34" s="9" t="n">
-        <v>3450.825</v>
+        <v>6797.942</v>
       </c>
     </row>
     <row r="35" ht="19.5" customHeight="1">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C35" s="26" t="n"/>
       <c r="D35" s="9" t="n">
-        <v>4318.805</v>
+        <v>8507.816999999999</v>
       </c>
     </row>
     <row r="36" ht="19.5" customHeight="1">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="C36" s="26" t="n"/>
       <c r="D36" s="9" t="n">
-        <v>5620.065</v>
+        <v>11071.228</v>
       </c>
     </row>
     <row r="37" ht="19.5" customHeight="1">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C37" s="26" t="n"/>
       <c r="D37" s="9" t="n">
-        <v>7941.257</v>
+        <v>15643.851</v>
       </c>
     </row>
     <row r="38" ht="19.5" customHeight="1">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="C38" s="26" t="n"/>
       <c r="D38" s="9" t="n">
-        <v>11704.373</v>
+        <v>23056.99</v>
       </c>
     </row>
     <row r="39" ht="19.5" customHeight="1">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C39" s="26" t="n"/>
       <c r="D39" s="9" t="n">
-        <v>16093.505</v>
+        <v>31703.345</v>
       </c>
     </row>
     <row r="40" ht="19.5" customHeight="1">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="9" t="n">
-        <v>20689.449</v>
+        <v>40757.109</v>
       </c>
     </row>
     <row r="43" ht="20.25" customHeight="1">
@@ -1151,26 +1151,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A10:E10"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/SOPORTE DE ESTANTE.xlsx
+++ b/server/LISTAS/mi/SOPORTE DE ESTANTE.xlsx
@@ -815,7 +815,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="F1" s="23" t="n"/>
       <c r="G1" s="23" t="n"/>

--- a/server/LISTAS/mi/SOPORTE DE ESTANTE.xlsx
+++ b/server/LISTAS/mi/SOPORTE DE ESTANTE.xlsx
@@ -815,7 +815,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
       <c r="F1" s="23" t="n"/>
       <c r="G1" s="23" t="n"/>
@@ -886,7 +886,7 @@
       </c>
       <c r="C26" s="26" t="n"/>
       <c r="D26" s="9" t="n">
-        <v>6797.942</v>
+        <v>3450.825</v>
       </c>
       <c r="I26" s="4" t="n"/>
     </row>
@@ -903,7 +903,7 @@
       </c>
       <c r="C27" s="26" t="n"/>
       <c r="D27" s="9" t="n">
-        <v>8507.816999999999</v>
+        <v>4318.805</v>
       </c>
       <c r="I27" s="4" t="n"/>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C28" s="26" t="n"/>
       <c r="D28" s="9" t="n">
-        <v>11071.228</v>
+        <v>5620.065</v>
       </c>
       <c r="I28" s="4" t="n"/>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C29" s="26" t="n"/>
       <c r="D29" s="9" t="n">
-        <v>15643.851</v>
+        <v>7941.257</v>
       </c>
       <c r="I29" s="4" t="n"/>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="C30" s="26" t="n"/>
       <c r="D30" s="9" t="n">
-        <v>23056.99</v>
+        <v>11704.373</v>
       </c>
       <c r="I30" s="4" t="n"/>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="C31" s="26" t="n"/>
       <c r="D31" s="9" t="n">
-        <v>31703.345</v>
+        <v>16093.505</v>
       </c>
       <c r="I31" s="4" t="n"/>
     </row>
@@ -988,7 +988,7 @@
       </c>
       <c r="C32" s="26" t="n"/>
       <c r="D32" s="19" t="n">
-        <v>40757.109</v>
+        <v>20689.449</v>
       </c>
       <c r="I32" s="4" t="n"/>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="C34" s="26" t="n"/>
       <c r="D34" s="9" t="n">
-        <v>6797.942</v>
+        <v>3450.825</v>
       </c>
     </row>
     <row r="35" ht="19.5" customHeight="1">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C35" s="26" t="n"/>
       <c r="D35" s="9" t="n">
-        <v>8507.816999999999</v>
+        <v>4318.805</v>
       </c>
     </row>
     <row r="36" ht="19.5" customHeight="1">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="C36" s="26" t="n"/>
       <c r="D36" s="9" t="n">
-        <v>11071.228</v>
+        <v>5620.065</v>
       </c>
     </row>
     <row r="37" ht="19.5" customHeight="1">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C37" s="26" t="n"/>
       <c r="D37" s="9" t="n">
-        <v>15643.851</v>
+        <v>7941.257</v>
       </c>
     </row>
     <row r="38" ht="19.5" customHeight="1">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="C38" s="26" t="n"/>
       <c r="D38" s="9" t="n">
-        <v>23056.99</v>
+        <v>11704.373</v>
       </c>
     </row>
     <row r="39" ht="19.5" customHeight="1">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C39" s="26" t="n"/>
       <c r="D39" s="9" t="n">
-        <v>31703.345</v>
+        <v>16093.505</v>
       </c>
     </row>
     <row r="40" ht="19.5" customHeight="1">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="9" t="n">
-        <v>40757.109</v>
+        <v>20689.449</v>
       </c>
     </row>
     <row r="43" ht="20.25" customHeight="1">
@@ -1151,26 +1151,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A10:E10"/>
     <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/SOPORTE DE ESTANTE.xlsx
+++ b/server/LISTAS/mi/SOPORTE DE ESTANTE.xlsx
@@ -815,7 +815,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="F1" s="23" t="n"/>
       <c r="G1" s="23" t="n"/>
@@ -1151,26 +1151,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A10:E10"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/SOPORTE DE ESTANTE.xlsx
+++ b/server/LISTAS/mi/SOPORTE DE ESTANTE.xlsx
@@ -815,7 +815,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="F1" s="23" t="n"/>
       <c r="G1" s="23" t="n"/>
@@ -1151,26 +1151,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A10:E10"/>
     <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/SOPORTE DE ESTANTE.xlsx
+++ b/server/LISTAS/mi/SOPORTE DE ESTANTE.xlsx
@@ -815,7 +815,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="F1" s="23" t="n"/>
       <c r="G1" s="23" t="n"/>
@@ -1151,26 +1151,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A10:E10"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/SOPORTE DE ESTANTE.xlsx
+++ b/server/LISTAS/mi/SOPORTE DE ESTANTE.xlsx
@@ -815,7 +815,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="F1" s="23" t="n"/>
       <c r="G1" s="23" t="n"/>
@@ -886,7 +886,7 @@
       </c>
       <c r="C26" s="26" t="n"/>
       <c r="D26" s="9" t="n">
-        <v>3450.825</v>
+        <v>6797.942</v>
       </c>
       <c r="I26" s="4" t="n"/>
     </row>
@@ -903,7 +903,7 @@
       </c>
       <c r="C27" s="26" t="n"/>
       <c r="D27" s="9" t="n">
-        <v>4318.805</v>
+        <v>8507.816999999999</v>
       </c>
       <c r="I27" s="4" t="n"/>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C28" s="26" t="n"/>
       <c r="D28" s="9" t="n">
-        <v>5620.065</v>
+        <v>11071.228</v>
       </c>
       <c r="I28" s="4" t="n"/>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C29" s="26" t="n"/>
       <c r="D29" s="9" t="n">
-        <v>7941.257</v>
+        <v>15643.851</v>
       </c>
       <c r="I29" s="4" t="n"/>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="C30" s="26" t="n"/>
       <c r="D30" s="9" t="n">
-        <v>11704.373</v>
+        <v>23056.99</v>
       </c>
       <c r="I30" s="4" t="n"/>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="C31" s="26" t="n"/>
       <c r="D31" s="9" t="n">
-        <v>16093.505</v>
+        <v>31703.345</v>
       </c>
       <c r="I31" s="4" t="n"/>
     </row>
@@ -988,7 +988,7 @@
       </c>
       <c r="C32" s="26" t="n"/>
       <c r="D32" s="19" t="n">
-        <v>20689.449</v>
+        <v>40757.109</v>
       </c>
       <c r="I32" s="4" t="n"/>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="C34" s="26" t="n"/>
       <c r="D34" s="9" t="n">
-        <v>3450.825</v>
+        <v>6797.942</v>
       </c>
     </row>
     <row r="35" ht="19.5" customHeight="1">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C35" s="26" t="n"/>
       <c r="D35" s="9" t="n">
-        <v>4318.805</v>
+        <v>8507.816999999999</v>
       </c>
     </row>
     <row r="36" ht="19.5" customHeight="1">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="C36" s="26" t="n"/>
       <c r="D36" s="9" t="n">
-        <v>5620.065</v>
+        <v>11071.228</v>
       </c>
     </row>
     <row r="37" ht="19.5" customHeight="1">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C37" s="26" t="n"/>
       <c r="D37" s="9" t="n">
-        <v>7941.257</v>
+        <v>15643.851</v>
       </c>
     </row>
     <row r="38" ht="19.5" customHeight="1">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="C38" s="26" t="n"/>
       <c r="D38" s="9" t="n">
-        <v>11704.373</v>
+        <v>23056.99</v>
       </c>
     </row>
     <row r="39" ht="19.5" customHeight="1">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C39" s="26" t="n"/>
       <c r="D39" s="9" t="n">
-        <v>16093.505</v>
+        <v>31703.345</v>
       </c>
     </row>
     <row r="40" ht="19.5" customHeight="1">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="9" t="n">
-        <v>20689.449</v>
+        <v>40757.109</v>
       </c>
     </row>
     <row r="43" ht="20.25" customHeight="1">
@@ -1151,26 +1151,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A10:E10"/>
     <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
